--- a/speech_processing/analysis/results/cepstrum/F0_comparison_MDU_RE_005.xlsx
+++ b/speech_processing/analysis/results/cepstrum/F0_comparison_MDU_RE_005.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D186"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
         <v>1.964227294921898</v>
       </c>
       <c r="D2" t="n">
-        <v>9.925111300081822</v>
+        <v>10.75709488009814</v>
       </c>
     </row>
     <row r="3">
@@ -507,21 +507,21 @@
         <v>217.0289306640625</v>
       </c>
       <c r="B6" t="n">
-        <v>212.02</v>
+        <v>259.41</v>
       </c>
       <c r="C6" t="n">
-        <v>5.00893066406249</v>
+        <v>42.38106933593753</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>240.7139434814453</v>
+        <v>210.9844360351562</v>
       </c>
       <c r="B7" t="n">
-        <v>212.02</v>
+        <v>210</v>
       </c>
       <c r="C7" t="n">
-        <v>28.6939434814453</v>
+        <v>0.98443603515625</v>
       </c>
     </row>
     <row r="8">
@@ -529,10 +529,10 @@
         <v>230.4476013183594</v>
       </c>
       <c r="B8" t="n">
-        <v>212.02</v>
+        <v>237.1</v>
       </c>
       <c r="C8" t="n">
-        <v>18.42760131835936</v>
+        <v>6.652398681640619</v>
       </c>
     </row>
     <row r="9">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>206.07</v>
+        <v>214.08</v>
       </c>
       <c r="C9" t="n">
-        <v>206.07</v>
+        <v>214.08</v>
       </c>
     </row>
     <row r="10">
@@ -562,10 +562,10 @@
         <v>194.2679748535156</v>
       </c>
       <c r="B11" t="n">
-        <v>175</v>
+        <v>193.42</v>
       </c>
       <c r="C11" t="n">
-        <v>19.26797485351562</v>
+        <v>0.8479748535156375</v>
       </c>
     </row>
     <row r="12">
@@ -573,1923 +573,1659 @@
         <v>181.6870727539062</v>
       </c>
       <c r="B12" t="n">
-        <v>175</v>
+        <v>190.09</v>
       </c>
       <c r="C12" t="n">
-        <v>6.68707275390625</v>
+        <v>8.402927246093753</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>167.5425720214844</v>
+        <v>154.2151336669922</v>
       </c>
       <c r="B13" t="n">
-        <v>175</v>
+        <v>154.2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.457427978515625</v>
+        <v>0.01513366699219887</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>154.2151336669922</v>
+        <v>129.8229064941406</v>
       </c>
       <c r="B14" t="n">
-        <v>154.2</v>
+        <v>130.47</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01513366699219887</v>
+        <v>0.6470935058593739</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>138.93505859375</v>
+        <v>129.2676544189453</v>
       </c>
       <c r="B15" t="n">
-        <v>147</v>
+        <v>126.72</v>
       </c>
       <c r="C15" t="n">
-        <v>8.06494140625</v>
+        <v>2.547654418945314</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>129.8229064941406</v>
+        <v>133.044677734375</v>
       </c>
       <c r="B16" t="n">
-        <v>130.47</v>
+        <v>132.83</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6470935058593739</v>
+        <v>0.2146777343749875</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>125.8851623535156</v>
+        <v>189.0491027832031</v>
       </c>
       <c r="B17" t="n">
-        <v>129.71</v>
+        <v>172.27</v>
       </c>
       <c r="C17" t="n">
-        <v>3.824837646484383</v>
+        <v>16.77910278320311</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>129.2676544189453</v>
+        <v>214.1205749511719</v>
       </c>
       <c r="B18" t="n">
-        <v>129.71</v>
+        <v>206.07</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4423455810546955</v>
+        <v>8.050574951171882</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>133.044677734375</v>
+        <v>224.0827941894531</v>
       </c>
       <c r="B19" t="n">
-        <v>129.71</v>
+        <v>222.73</v>
       </c>
       <c r="C19" t="n">
-        <v>3.334677734374992</v>
+        <v>1.352794189453135</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>139.9166564941406</v>
+        <v>228.4996032714844</v>
       </c>
       <c r="B20" t="n">
-        <v>140.45</v>
+        <v>232.11</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5333435058593636</v>
+        <v>3.610396728515639</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>155.6633148193359</v>
+        <v>209.7667388916016</v>
       </c>
       <c r="B21" t="n">
-        <v>140.45</v>
+        <v>237.1</v>
       </c>
       <c r="C21" t="n">
-        <v>15.21331481933595</v>
+        <v>27.33326110839843</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>189.0491027832031</v>
+        <v>207.0127868652344</v>
       </c>
       <c r="B22" t="n">
-        <v>151.03</v>
+        <v>206.07</v>
       </c>
       <c r="C22" t="n">
-        <v>38.01910278320312</v>
+        <v>0.9427868652343818</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>203.982421875</v>
+        <v>205.84130859375</v>
       </c>
       <c r="B23" t="n">
-        <v>172.27</v>
+        <v>204.17</v>
       </c>
       <c r="C23" t="n">
-        <v>31.71242187499999</v>
+        <v>1.671308593750013</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>214.1205749511719</v>
+        <v>219.8064575195312</v>
       </c>
       <c r="B24" t="n">
-        <v>206.07</v>
+        <v>198.65</v>
       </c>
       <c r="C24" t="n">
-        <v>8.050574951171882</v>
+        <v>21.15645751953124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>224.0827941894531</v>
+        <v>239.8572082519531</v>
       </c>
       <c r="B25" t="n">
-        <v>222.73</v>
+        <v>242.31</v>
       </c>
       <c r="C25" t="n">
-        <v>1.352794189453135</v>
+        <v>2.452791748046877</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>228.4996032714844</v>
+        <v>218.63427734375</v>
       </c>
       <c r="B26" t="n">
-        <v>222.73</v>
+        <v>237.1</v>
       </c>
       <c r="C26" t="n">
-        <v>5.769603271484385</v>
+        <v>18.46572265624999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>209.7667388916016</v>
+        <v>211.14794921875</v>
       </c>
       <c r="B27" t="n">
-        <v>222.73</v>
+        <v>214.08</v>
       </c>
       <c r="C27" t="n">
-        <v>12.96326110839843</v>
+        <v>2.932050781250013</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>206.3988647460938</v>
+        <v>184.9318237304688</v>
       </c>
       <c r="B28" t="n">
-        <v>208.02</v>
+        <v>195.13</v>
       </c>
       <c r="C28" t="n">
-        <v>1.62113525390626</v>
+        <v>10.19817626953125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>207.290771484375</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>206.07</v>
+        <v>175</v>
       </c>
       <c r="C29" t="n">
-        <v>1.220771484375007</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>207.0127868652344</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>204.17</v>
+        <v>134.45</v>
       </c>
       <c r="C30" t="n">
-        <v>2.842786865234388</v>
+        <v>134.45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>205.84130859375</v>
+        <v>141.6324462890625</v>
       </c>
       <c r="B31" t="n">
-        <v>204.17</v>
+        <v>141.35</v>
       </c>
       <c r="C31" t="n">
-        <v>1.671308593750013</v>
+        <v>0.2824462890625057</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>219.8064575195312</v>
+        <v>141.0054779052734</v>
       </c>
       <c r="B32" t="n">
-        <v>204.17</v>
+        <v>140.45</v>
       </c>
       <c r="C32" t="n">
-        <v>15.63645751953126</v>
+        <v>0.5554779052734489</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>238.4285888671875</v>
+        <v>139.5316467285156</v>
       </c>
       <c r="B33" t="n">
-        <v>204.17</v>
+        <v>139.56</v>
       </c>
       <c r="C33" t="n">
-        <v>34.25858886718751</v>
+        <v>0.02835327148437727</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>239.8572082519531</v>
+        <v>140.4318237304688</v>
       </c>
       <c r="B34" t="n">
-        <v>214.08</v>
+        <v>140.45</v>
       </c>
       <c r="C34" t="n">
-        <v>25.77720825195311</v>
+        <v>0.01817626953123863</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>218.63427734375</v>
+        <v>154.9470977783203</v>
       </c>
       <c r="B35" t="n">
-        <v>214.08</v>
+        <v>152.07</v>
       </c>
       <c r="C35" t="n">
-        <v>4.554277343749987</v>
+        <v>2.877097778320319</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>211.14794921875</v>
+        <v>161.5744476318359</v>
       </c>
       <c r="B36" t="n">
-        <v>214.08</v>
+        <v>158.63</v>
       </c>
       <c r="C36" t="n">
-        <v>2.932050781250013</v>
+        <v>2.944447631835942</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>184.9318237304688</v>
+        <v>166.3465728759766</v>
       </c>
       <c r="B37" t="n">
-        <v>195.13</v>
+        <v>165.79</v>
       </c>
       <c r="C37" t="n">
-        <v>10.19817626953125</v>
+        <v>0.5565728759765705</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>173.4205627441406</v>
       </c>
       <c r="B38" t="n">
-        <v>175</v>
+        <v>168.32</v>
       </c>
       <c r="C38" t="n">
-        <v>175</v>
+        <v>5.100562744140632</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>141.6324462890625</v>
+        <v>179.1376037597656</v>
       </c>
       <c r="B39" t="n">
-        <v>139.56</v>
+        <v>117.29</v>
       </c>
       <c r="C39" t="n">
-        <v>2.072446289062498</v>
+        <v>61.84760375976562</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>141.0054779052734</v>
+        <v>185.0245361328125</v>
       </c>
       <c r="B40" t="n">
-        <v>140.45</v>
+        <v>183.75</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5554779052734489</v>
+        <v>1.2745361328125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>139.5316467285156</v>
+        <v>185.0174407958984</v>
       </c>
       <c r="B41" t="n">
-        <v>140.45</v>
+        <v>185.29</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9183532714843636</v>
+        <v>0.2725592041015545</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>140.4318237304688</v>
+        <v>181.7732696533203</v>
       </c>
       <c r="B42" t="n">
-        <v>140.45</v>
+        <v>183.75</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01817626953123863</v>
+        <v>1.976730346679688</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>147.4703063964844</v>
+        <v>175.7162322998047</v>
       </c>
       <c r="B43" t="n">
-        <v>140.45</v>
+        <v>177.82</v>
       </c>
       <c r="C43" t="n">
-        <v>7.020306396484386</v>
+        <v>2.103767700195306</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>154.9470977783203</v>
+        <v>167.3829193115234</v>
       </c>
       <c r="B44" t="n">
-        <v>153.12</v>
+        <v>168.32</v>
       </c>
       <c r="C44" t="n">
-        <v>1.827097778320308</v>
+        <v>0.9370806884765557</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>161.5744476318359</v>
+        <v>152.3563232421875</v>
       </c>
       <c r="B45" t="n">
         <v>159.78</v>
       </c>
       <c r="C45" t="n">
-        <v>1.794447631835936</v>
+        <v>7.423676757812501</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>166.3465728759766</v>
+        <v>183.0075073242188</v>
       </c>
       <c r="B46" t="n">
-        <v>159.78</v>
+        <v>183.75</v>
       </c>
       <c r="C46" t="n">
-        <v>6.566572875976561</v>
+        <v>0.74249267578125</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>173.4205627441406</v>
+        <v>183.4113616943359</v>
       </c>
       <c r="B47" t="n">
-        <v>159.78</v>
+        <v>183.75</v>
       </c>
       <c r="C47" t="n">
-        <v>13.64056274414062</v>
+        <v>0.3386383056640625</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>179.1376037597656</v>
+        <v>182.4502868652344</v>
       </c>
       <c r="B48" t="n">
-        <v>165.79</v>
+        <v>183.75</v>
       </c>
       <c r="C48" t="n">
-        <v>13.34760375976563</v>
+        <v>1.299713134765625</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>183.2552185058594</v>
+        <v>180.2411651611328</v>
       </c>
       <c r="B49" t="n">
-        <v>168.32</v>
+        <v>182.23</v>
       </c>
       <c r="C49" t="n">
-        <v>14.93521850585938</v>
+        <v>1.988834838867177</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>185.0245361328125</v>
+        <v>175.9138336181641</v>
       </c>
       <c r="B50" t="n">
-        <v>183.75</v>
+        <v>175</v>
       </c>
       <c r="C50" t="n">
-        <v>1.2745361328125</v>
+        <v>0.9138336181640625</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>185.0174407958984</v>
+        <v>171.3846282958984</v>
       </c>
       <c r="B51" t="n">
-        <v>183.75</v>
+        <v>168.32</v>
       </c>
       <c r="C51" t="n">
-        <v>1.267440795898438</v>
+        <v>3.064628295898444</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>181.7732696533203</v>
+        <v>174.3072357177734</v>
       </c>
       <c r="B52" t="n">
-        <v>183.75</v>
+        <v>170.93</v>
       </c>
       <c r="C52" t="n">
-        <v>1.976730346679688</v>
+        <v>3.377235717773431</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>175.7162322998047</v>
+        <v>187.5950012207031</v>
       </c>
       <c r="B53" t="n">
-        <v>177.82</v>
+        <v>182.23</v>
       </c>
       <c r="C53" t="n">
-        <v>2.103767700195306</v>
+        <v>5.365001220703135</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>167.3829193115234</v>
+        <v>186.8419799804688</v>
       </c>
       <c r="B54" t="n">
-        <v>168.32</v>
+        <v>188.46</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9370806884765557</v>
+        <v>1.618020019531258</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>152.3563232421875</v>
+        <v>183.5979156494141</v>
       </c>
       <c r="B55" t="n">
-        <v>159.78</v>
+        <v>190.09</v>
       </c>
       <c r="C55" t="n">
-        <v>7.423676757812501</v>
+        <v>6.492084350585941</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>183.0075073242188</v>
+        <v>179.0014953613281</v>
       </c>
       <c r="B56" t="n">
         <v>183.75</v>
       </c>
       <c r="C56" t="n">
-        <v>0.74249267578125</v>
+        <v>4.748504638671875</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>183.4113616943359</v>
+        <v>179.3242645263672</v>
       </c>
       <c r="B57" t="n">
-        <v>183.75</v>
+        <v>168.32</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3386383056640625</v>
+        <v>11.00426452636719</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>182.4502868652344</v>
+        <v>194.8056335449219</v>
       </c>
       <c r="B58" t="n">
-        <v>183.75</v>
+        <v>155.28</v>
       </c>
       <c r="C58" t="n">
-        <v>1.299713134765625</v>
+        <v>39.52563354492187</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>180.2411651611328</v>
+        <v>150.1735687255859</v>
       </c>
       <c r="B59" t="n">
-        <v>182.23</v>
+        <v>148.99</v>
       </c>
       <c r="C59" t="n">
-        <v>1.988834838867177</v>
+        <v>1.183568725585928</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>175.9138336181641</v>
+        <v>149.3590698242188</v>
       </c>
       <c r="B60" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9138336181640625</v>
+        <v>0.64093017578125</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>171.6062927246094</v>
+        <v>122.9513092041016</v>
       </c>
       <c r="B61" t="n">
-        <v>168.32</v>
+        <v>121.15</v>
       </c>
       <c r="C61" t="n">
-        <v>3.286292724609382</v>
+        <v>1.801309204101557</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>169.5813140869141</v>
+        <v>123.278923034668</v>
       </c>
       <c r="B62" t="n">
-        <v>168.32</v>
+        <v>122.5</v>
       </c>
       <c r="C62" t="n">
-        <v>1.261314086914069</v>
+        <v>0.7789230346679688</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>181.4849548339844</v>
+        <v>122.2187042236328</v>
       </c>
       <c r="B63" t="n">
-        <v>168.32</v>
+        <v>123.18</v>
       </c>
       <c r="C63" t="n">
-        <v>13.16495483398438</v>
+        <v>0.9612957763671943</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>185.8134155273438</v>
+        <v>119.7249145507812</v>
       </c>
       <c r="B64" t="n">
-        <v>170.93</v>
+        <v>119.84</v>
       </c>
       <c r="C64" t="n">
-        <v>14.88341552734374</v>
+        <v>0.1150854492187534</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>187.5950012207031</v>
+        <v>118.8384628295898</v>
       </c>
       <c r="B65" t="n">
-        <v>185.29</v>
+        <v>119.19</v>
       </c>
       <c r="C65" t="n">
-        <v>2.305001220703133</v>
+        <v>0.351537170410154</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>186.8419799804688</v>
+        <v>116.9485549926758</v>
       </c>
       <c r="B66" t="n">
-        <v>185.29</v>
+        <v>118.55</v>
       </c>
       <c r="C66" t="n">
-        <v>1.551979980468758</v>
+        <v>1.601445007324216</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>183.5979156494141</v>
+        <v>118.1642074584961</v>
       </c>
       <c r="B67" t="n">
-        <v>185.29</v>
+        <v>116.05</v>
       </c>
       <c r="C67" t="n">
-        <v>1.69208435058593</v>
+        <v>2.114207458496097</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>179.0014953613281</v>
+        <v>119.4490280151367</v>
       </c>
       <c r="B68" t="n">
-        <v>183.75</v>
+        <v>117.29</v>
       </c>
       <c r="C68" t="n">
-        <v>4.748504638671875</v>
+        <v>2.159028015136712</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>179.3242645263672</v>
+        <v>122.8209457397461</v>
       </c>
       <c r="B69" t="n">
-        <v>168.32</v>
+        <v>120.49</v>
       </c>
       <c r="C69" t="n">
-        <v>11.00426452636719</v>
+        <v>2.330945739746099</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>194.8056335449219</v>
+        <v>132.1464691162109</v>
       </c>
       <c r="B70" t="n">
-        <v>155.28</v>
+        <v>128.2</v>
       </c>
       <c r="C70" t="n">
-        <v>39.52563354492187</v>
+        <v>3.946469116210949</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>149.3590698242188</v>
+        <v>142.1545257568359</v>
       </c>
       <c r="B71" t="n">
-        <v>148.99</v>
+        <v>132.04</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3690698242187409</v>
+        <v>10.11452575683595</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>145.2974853515625</v>
+        <v>151.7482757568359</v>
       </c>
       <c r="B72" t="n">
-        <v>148.99</v>
+        <v>147.99</v>
       </c>
       <c r="C72" t="n">
-        <v>3.692514648437509</v>
+        <v>3.758275756835928</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131.092529296875</v>
+        <v>155.6697540283203</v>
       </c>
       <c r="B73" t="n">
-        <v>122.5</v>
+        <v>152.07</v>
       </c>
       <c r="C73" t="n">
-        <v>8.592529296875</v>
+        <v>3.599754028320319</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>122.9513092041016</v>
+        <v>158.8127746582031</v>
       </c>
       <c r="B74" t="n">
-        <v>122.5</v>
+        <v>155.28</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4513092041015625</v>
+        <v>3.532774658203124</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>123.278923034668</v>
+        <v>161.0561065673828</v>
       </c>
       <c r="B75" t="n">
-        <v>122.5</v>
+        <v>159.78</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7789230346679688</v>
+        <v>1.276106567382811</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>122.2187042236328</v>
+        <v>161.5991516113281</v>
       </c>
       <c r="B76" t="n">
-        <v>120.49</v>
+        <v>162.13</v>
       </c>
       <c r="C76" t="n">
-        <v>1.728704223632818</v>
+        <v>0.5308483886718705</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>119.7249145507812</v>
+        <v>160.9340362548828</v>
       </c>
       <c r="B77" t="n">
-        <v>120.49</v>
+        <v>162.13</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7650854492187449</v>
+        <v>1.195963745117183</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>118.8384628295898</v>
+        <v>162.8119354248047</v>
       </c>
       <c r="B78" t="n">
-        <v>119.19</v>
+        <v>162.13</v>
       </c>
       <c r="C78" t="n">
-        <v>0.351537170410154</v>
+        <v>0.681935424804692</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>116.9485549926758</v>
+        <v>164.7303924560547</v>
       </c>
       <c r="B79" t="n">
-        <v>118.55</v>
+        <v>167.05</v>
       </c>
       <c r="C79" t="n">
-        <v>1.601445007324216</v>
+        <v>2.319607543945324</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>118.1642074584961</v>
+        <v>164.4679565429688</v>
       </c>
       <c r="B80" t="n">
-        <v>118.55</v>
+        <v>167.05</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3857925415039034</v>
+        <v>2.582043457031261</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>119.4490280151367</v>
+        <v>164.5303955078125</v>
       </c>
       <c r="B81" t="n">
-        <v>117.29</v>
+        <v>165.79</v>
       </c>
       <c r="C81" t="n">
-        <v>2.159028015136712</v>
+        <v>1.259604492187492</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>122.8209457397461</v>
+        <v>165.02880859375</v>
       </c>
       <c r="B82" t="n">
-        <v>117.29</v>
+        <v>165.79</v>
       </c>
       <c r="C82" t="n">
-        <v>5.530945739746087</v>
+        <v>0.761191406249992</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>128.3911437988281</v>
+        <v>172.3096771240234</v>
       </c>
       <c r="B83" t="n">
-        <v>117.29</v>
+        <v>164.55</v>
       </c>
       <c r="C83" t="n">
-        <v>11.10114379882812</v>
+        <v>7.759677124023426</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>147.8138580322266</v>
+        <v>167.9485015869141</v>
       </c>
       <c r="B84" t="n">
-        <v>132.04</v>
+        <v>168.32</v>
       </c>
       <c r="C84" t="n">
-        <v>15.77385803222657</v>
+        <v>0.3714984130859307</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>151.7482757568359</v>
+        <v>166.6403350830078</v>
       </c>
       <c r="B85" t="n">
-        <v>147.99</v>
+        <v>167.05</v>
       </c>
       <c r="C85" t="n">
-        <v>3.758275756835928</v>
+        <v>0.4096649169921989</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>155.6697540283203</v>
+        <v>166.6208801269531</v>
       </c>
       <c r="B86" t="n">
-        <v>152.07</v>
+        <v>167.05</v>
       </c>
       <c r="C86" t="n">
-        <v>3.599754028320319</v>
+        <v>0.4291198730468864</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>158.8127746582031</v>
+        <v>165.7721862792969</v>
       </c>
       <c r="B87" t="n">
-        <v>155.28</v>
+        <v>167.05</v>
       </c>
       <c r="C87" t="n">
-        <v>3.532774658203124</v>
+        <v>1.277813720703136</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>161.0561065673828</v>
+        <v>163.5066528320312</v>
       </c>
       <c r="B88" t="n">
-        <v>159.78</v>
+        <v>165.79</v>
       </c>
       <c r="C88" t="n">
-        <v>1.276106567382811</v>
+        <v>2.283347167968742</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>161.5991516113281</v>
+        <v>159.91796875</v>
       </c>
       <c r="B89" t="n">
-        <v>162.13</v>
+        <v>163.33</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5308483886718705</v>
+        <v>3.412031250000013</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>160.9340362548828</v>
+        <v>155.8356781005859</v>
       </c>
       <c r="B90" t="n">
-        <v>162.13</v>
+        <v>159.78</v>
       </c>
       <c r="C90" t="n">
-        <v>1.195963745117183</v>
+        <v>3.944321899414064</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>162.8119354248047</v>
+        <v>152.0851898193359</v>
       </c>
       <c r="B91" t="n">
-        <v>162.13</v>
+        <v>151.03</v>
       </c>
       <c r="C91" t="n">
-        <v>0.681935424804692</v>
+        <v>1.055189819335936</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>164.7303924560547</v>
+        <v>150.938720703125</v>
       </c>
       <c r="B92" t="n">
-        <v>165.79</v>
+        <v>151.03</v>
       </c>
       <c r="C92" t="n">
-        <v>1.059607543945305</v>
+        <v>0.09127929687500114</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>164.4679565429688</v>
+        <v>149.4795074462891</v>
       </c>
       <c r="B93" t="n">
-        <v>165.79</v>
+        <v>150</v>
       </c>
       <c r="C93" t="n">
-        <v>1.322043457031242</v>
+        <v>0.5204925537109375</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>164.5303955078125</v>
+        <v>151.8117828369141</v>
       </c>
       <c r="B94" t="n">
-        <v>165.79</v>
+        <v>148.99</v>
       </c>
       <c r="C94" t="n">
-        <v>1.259604492187492</v>
+        <v>2.821782836914053</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>165.02880859375</v>
+        <v>156.9808349609375</v>
       </c>
       <c r="B95" t="n">
-        <v>165.79</v>
+        <v>150</v>
       </c>
       <c r="C95" t="n">
-        <v>0.761191406249992</v>
+        <v>6.9808349609375</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>172.3096771240234</v>
+        <v>161.4513702392578</v>
       </c>
       <c r="B96" t="n">
-        <v>165.79</v>
+        <v>158.63</v>
       </c>
       <c r="C96" t="n">
-        <v>6.519677124023445</v>
+        <v>2.821370239257817</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>170.7972259521484</v>
+        <v>163.0711517333984</v>
       </c>
       <c r="B97" t="n">
-        <v>167.05</v>
+        <v>162.13</v>
       </c>
       <c r="C97" t="n">
-        <v>3.747225952148426</v>
+        <v>0.941151733398442</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>167.9485015869141</v>
+        <v>160.9534606933594</v>
       </c>
       <c r="B98" t="n">
-        <v>167.05</v>
+        <v>164.55</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8985015869140511</v>
+        <v>3.596539306640636</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>166.6403350830078</v>
+        <v>157.2344818115234</v>
       </c>
       <c r="B99" t="n">
-        <v>167.05</v>
+        <v>160.95</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4096649169921989</v>
+        <v>3.715518188476551</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>166.6208801269531</v>
+        <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>167.05</v>
+        <v>153.12</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4291198730468864</v>
+        <v>153.12</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>165.7721862792969</v>
+        <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>167.05</v>
+        <v>111.36</v>
       </c>
       <c r="C101" t="n">
-        <v>1.277813720703136</v>
+        <v>111.36</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>163.5066528320312</v>
+        <v>153.9118194580078</v>
       </c>
       <c r="B102" t="n">
-        <v>165.79</v>
+        <v>154.2</v>
       </c>
       <c r="C102" t="n">
-        <v>2.283347167968742</v>
+        <v>0.2881805419921761</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>159.91796875</v>
+        <v>153.6394500732422</v>
       </c>
       <c r="B103" t="n">
-        <v>163.33</v>
+        <v>154.2</v>
       </c>
       <c r="C103" t="n">
-        <v>3.412031250000013</v>
+        <v>0.5605499267578011</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>155.8356781005859</v>
+        <v>148.0384979248047</v>
       </c>
       <c r="B104" t="n">
-        <v>159.78</v>
+        <v>152.07</v>
       </c>
       <c r="C104" t="n">
-        <v>3.944321899414064</v>
+        <v>4.031502075195306</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>152.0851898193359</v>
+        <v>143.7074279785156</v>
       </c>
       <c r="B105" t="n">
-        <v>151.03</v>
+        <v>144.12</v>
       </c>
       <c r="C105" t="n">
-        <v>1.055189819335936</v>
+        <v>0.4125720214843795</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>150.938720703125</v>
+        <v>142.2063293457031</v>
       </c>
       <c r="B106" t="n">
-        <v>150</v>
+        <v>143.18</v>
       </c>
       <c r="C106" t="n">
-        <v>0.938720703125</v>
+        <v>0.9736706542968818</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>149.4795074462891</v>
+        <v>139.5667572021484</v>
       </c>
       <c r="B107" t="n">
-        <v>150</v>
+        <v>140.45</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5204925537109375</v>
+        <v>0.8832427978515511</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>151.8117828369141</v>
+        <v>140.0084075927734</v>
       </c>
       <c r="B108" t="n">
-        <v>150</v>
+        <v>138.68</v>
       </c>
       <c r="C108" t="n">
-        <v>1.811782836914062</v>
+        <v>1.328407592773431</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>156.9808349609375</v>
+        <v>144.3228912353516</v>
       </c>
       <c r="B109" t="n">
-        <v>150</v>
+        <v>143.18</v>
       </c>
       <c r="C109" t="n">
-        <v>6.9808349609375</v>
+        <v>1.142891235351556</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>161.4513702392578</v>
+        <v>149.9476928710938</v>
       </c>
       <c r="B110" t="n">
-        <v>158.63</v>
+        <v>147</v>
       </c>
       <c r="C110" t="n">
-        <v>2.821370239257817</v>
+        <v>2.94769287109375</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>163.0711517333984</v>
+        <v>192.9969787597656</v>
       </c>
       <c r="B111" t="n">
-        <v>160.95</v>
+        <v>204.17</v>
       </c>
       <c r="C111" t="n">
-        <v>2.121151733398449</v>
+        <v>11.17302124023436</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>160.9534606933594</v>
+        <v>180.0124816894531</v>
       </c>
       <c r="B112" t="n">
-        <v>160.95</v>
+        <v>195.13</v>
       </c>
       <c r="C112" t="n">
-        <v>0.003460693359386369</v>
+        <v>15.11751831054687</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>157.2344818115234</v>
+        <v>165.6473541259766</v>
       </c>
       <c r="B113" t="n">
-        <v>160.95</v>
+        <v>177.82</v>
       </c>
       <c r="C113" t="n">
-        <v>3.715518188476551</v>
+        <v>12.17264587402343</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0</v>
+        <v>142.8545074462891</v>
       </c>
       <c r="B114" t="n">
-        <v>153.12</v>
+        <v>159.78</v>
       </c>
       <c r="C114" t="n">
-        <v>153.12</v>
+        <v>16.92549255371094</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0</v>
+        <v>132.7407989501953</v>
       </c>
       <c r="B115" t="n">
-        <v>111.36</v>
+        <v>132.83</v>
       </c>
       <c r="C115" t="n">
-        <v>111.36</v>
+        <v>0.08920104980470001</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>153.9118194580078</v>
+        <v>133.3321533203125</v>
       </c>
       <c r="B116" t="n">
-        <v>151.03</v>
+        <v>132.83</v>
       </c>
       <c r="C116" t="n">
-        <v>2.881819458007811</v>
+        <v>0.5021533203124875</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>153.6394500732422</v>
+        <v>138.0673675537109</v>
       </c>
       <c r="B117" t="n">
-        <v>151.03</v>
+        <v>133.64</v>
       </c>
       <c r="C117" t="n">
-        <v>2.609450073242186</v>
+        <v>4.427367553710951</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>148.0384979248047</v>
+        <v>139.4810638427734</v>
       </c>
       <c r="B118" t="n">
-        <v>151.03</v>
+        <v>139.56</v>
       </c>
       <c r="C118" t="n">
-        <v>2.991502075195314</v>
+        <v>0.07893615722656477</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>143.7074279785156</v>
+        <v>137.9694061279297</v>
       </c>
       <c r="B119" t="n">
-        <v>144.12</v>
+        <v>140.45</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4125720214843795</v>
+        <v>2.480593872070301</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>142.2063293457031</v>
+        <v>135.4923248291016</v>
       </c>
       <c r="B120" t="n">
-        <v>138.68</v>
+        <v>140.45</v>
       </c>
       <c r="C120" t="n">
-        <v>3.526329345703118</v>
+        <v>4.957675170898426</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>139.5667572021484</v>
+        <v>132.7247467041016</v>
       </c>
       <c r="B121" t="n">
-        <v>140.45</v>
+        <v>136.11</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8832427978515511</v>
+        <v>3.385253295898451</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>140.0084075927734</v>
+        <v>131.0929565429688</v>
       </c>
       <c r="B122" t="n">
-        <v>143.18</v>
+        <v>134.45</v>
       </c>
       <c r="C122" t="n">
-        <v>3.171592407226569</v>
+        <v>3.357043457031239</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>144.3228912353516</v>
+        <v>129.6355438232422</v>
       </c>
       <c r="B123" t="n">
-        <v>140.45</v>
+        <v>129.71</v>
       </c>
       <c r="C123" t="n">
-        <v>3.872891235351574</v>
+        <v>0.07445617675782046</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>149.9476928710938</v>
+        <v>128.5211029052734</v>
       </c>
       <c r="B124" t="n">
-        <v>138.68</v>
+        <v>128.95</v>
       </c>
       <c r="C124" t="n">
-        <v>11.26769287109374</v>
+        <v>0.4288970947265511</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>192.9969787597656</v>
+        <v>127.7280120849609</v>
       </c>
       <c r="B125" t="n">
-        <v>177.82</v>
+        <v>128.2</v>
       </c>
       <c r="C125" t="n">
-        <v>15.17697875976563</v>
+        <v>0.4719879150390511</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>180.0124816894531</v>
+        <v>130.8537902832031</v>
       </c>
       <c r="B126" t="n">
-        <v>177.82</v>
+        <v>160.95</v>
       </c>
       <c r="C126" t="n">
-        <v>2.192481689453132</v>
+        <v>30.09620971679686</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>165.6473541259766</v>
+        <v>130.84423828125</v>
       </c>
       <c r="B127" t="n">
-        <v>177.82</v>
+        <v>130.47</v>
       </c>
       <c r="C127" t="n">
-        <v>12.17264587402343</v>
+        <v>0.3742382812500011</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>142.8545074462891</v>
+        <v>129.6003723144531</v>
       </c>
       <c r="B128" t="n">
-        <v>160.95</v>
+        <v>130.47</v>
       </c>
       <c r="C128" t="n">
-        <v>18.09549255371093</v>
+        <v>0.8696276855468739</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>138.4532928466797</v>
+        <v>127.1024703979492</v>
       </c>
       <c r="B129" t="n">
-        <v>133.64</v>
+        <v>129.71</v>
       </c>
       <c r="C129" t="n">
-        <v>4.813292846679701</v>
+        <v>2.607529602050789</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>133.7045593261719</v>
+        <v>123.4841384887695</v>
       </c>
       <c r="B130" t="n">
-        <v>132.83</v>
+        <v>121.15</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8745593261718625</v>
+        <v>2.334138488769526</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>132.7407989501953</v>
+        <v>121.8922653198242</v>
       </c>
       <c r="B131" t="n">
-        <v>132.83</v>
+        <v>121.82</v>
       </c>
       <c r="C131" t="n">
-        <v>0.08920104980470001</v>
+        <v>0.07226531982422557</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>133.3321533203125</v>
+        <v>122.1500396728516</v>
       </c>
       <c r="B132" t="n">
-        <v>132.83</v>
+        <v>121.82</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5021533203124875</v>
+        <v>0.3300396728515693</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>138.0673675537109</v>
+        <v>122.5539932250977</v>
       </c>
       <c r="B133" t="n">
-        <v>133.64</v>
+        <v>123.18</v>
       </c>
       <c r="C133" t="n">
-        <v>4.427367553710951</v>
+        <v>0.6260067749023506</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>139.5785675048828</v>
+        <v>124.798698425293</v>
       </c>
       <c r="B134" t="n">
-        <v>134.45</v>
+        <v>125.28</v>
       </c>
       <c r="C134" t="n">
-        <v>5.128567504882824</v>
+        <v>0.4813015747070324</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>139.4810638427734</v>
+        <v>129.8000640869141</v>
       </c>
       <c r="B135" t="n">
-        <v>139.56</v>
+        <v>129.71</v>
       </c>
       <c r="C135" t="n">
-        <v>0.07893615722656477</v>
+        <v>0.09006408691405454</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>137.9694061279297</v>
+        <v>195.3191680908203</v>
       </c>
       <c r="B136" t="n">
-        <v>139.56</v>
+        <v>183.75</v>
       </c>
       <c r="C136" t="n">
-        <v>1.590593872070315</v>
+        <v>11.56916809082031</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>135.4923248291016</v>
+        <v>203.9958343505859</v>
       </c>
       <c r="B137" t="n">
-        <v>139.56</v>
+        <v>196.88</v>
       </c>
       <c r="C137" t="n">
-        <v>4.06767517089844</v>
+        <v>7.115834350585942</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>132.7247467041016</v>
+        <v>211.0321044921875</v>
       </c>
       <c r="B138" t="n">
-        <v>136.11</v>
+        <v>204.17</v>
       </c>
       <c r="C138" t="n">
-        <v>3.385253295898451</v>
+        <v>6.862104492187513</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>131.0929565429688</v>
+        <v>213.9262847900391</v>
       </c>
       <c r="B139" t="n">
-        <v>134.45</v>
+        <v>212.02</v>
       </c>
       <c r="C139" t="n">
-        <v>3.357043457031239</v>
+        <v>1.906284790039052</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>129.6355438232422</v>
+        <v>214.691162109375</v>
       </c>
       <c r="B140" t="n">
-        <v>129.71</v>
+        <v>216.18</v>
       </c>
       <c r="C140" t="n">
-        <v>0.07445617675782046</v>
+        <v>1.488837890625007</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>128.5211029052734</v>
+        <v>203.2340545654297</v>
       </c>
       <c r="B141" t="n">
-        <v>128.95</v>
+        <v>216.18</v>
       </c>
       <c r="C141" t="n">
-        <v>0.4288970947265511</v>
+        <v>12.94594543457032</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>127.7280120849609</v>
+        <v>171.8391876220703</v>
       </c>
       <c r="B142" t="n">
-        <v>128.2</v>
+        <v>173.62</v>
       </c>
       <c r="C142" t="n">
-        <v>0.4719879150390511</v>
+        <v>1.780812377929692</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>130.8537902832031</v>
+        <v>170.4337615966797</v>
       </c>
       <c r="B143" t="n">
-        <v>130.47</v>
+        <v>173.62</v>
       </c>
       <c r="C143" t="n">
-        <v>0.3837902832031261</v>
+        <v>3.186238403320317</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>130.84423828125</v>
+        <v>162.1210479736328</v>
       </c>
       <c r="B144" t="n">
-        <v>130.47</v>
+        <v>172.27</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3742382812500011</v>
+        <v>10.1489520263672</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>129.6003723144531</v>
+        <v>202.1144409179688</v>
       </c>
       <c r="B145" t="n">
-        <v>130.47</v>
+        <v>188.46</v>
       </c>
       <c r="C145" t="n">
-        <v>0.8696276855468739</v>
+        <v>13.65444091796874</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>127.1024703979492</v>
+        <v>205.31005859375</v>
       </c>
       <c r="B146" t="n">
-        <v>129.71</v>
+        <v>200.45</v>
       </c>
       <c r="C146" t="n">
-        <v>2.607529602050789</v>
+        <v>4.860058593750011</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>123.4841384887695</v>
+        <v>206.8379669189453</v>
       </c>
       <c r="B147" t="n">
-        <v>121.15</v>
+        <v>206.07</v>
       </c>
       <c r="C147" t="n">
-        <v>2.334138488769526</v>
+        <v>0.7679669189453193</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>121.8922653198242</v>
+        <v>203.7843475341797</v>
       </c>
       <c r="B148" t="n">
-        <v>122.5</v>
+        <v>208.02</v>
       </c>
       <c r="C148" t="n">
-        <v>0.6077346801757812</v>
+        <v>4.235652465820323</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>122.1500396728516</v>
+        <v>196.3580322265625</v>
       </c>
       <c r="B149" t="n">
-        <v>122.5</v>
+        <v>198.65</v>
       </c>
       <c r="C149" t="n">
-        <v>0.3499603271484375</v>
+        <v>2.291967773437506</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>122.5539932250977</v>
+        <v>192.1214904785156</v>
       </c>
       <c r="B150" t="n">
-        <v>122.5</v>
+        <v>196.88</v>
       </c>
       <c r="C150" t="n">
-        <v>0.05399322509765625</v>
+        <v>4.75850952148437</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>124.798698425293</v>
+        <v>187.1541290283203</v>
       </c>
       <c r="B151" t="n">
-        <v>123.18</v>
+        <v>191.74</v>
       </c>
       <c r="C151" t="n">
-        <v>1.618698425292962</v>
+        <v>4.585870971679697</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>128.9214782714844</v>
+        <v>190.3053131103516</v>
       </c>
       <c r="B152" t="n">
-        <v>123.18</v>
+        <v>186.86</v>
       </c>
       <c r="C152" t="n">
-        <v>5.741478271484368</v>
+        <v>3.445313110351549</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>195.3191680908203</v>
+        <v>198.0863494873047</v>
       </c>
       <c r="B153" t="n">
-        <v>183.75</v>
+        <v>185.29</v>
       </c>
       <c r="C153" t="n">
-        <v>11.56916809082031</v>
+        <v>12.7963494873047</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>203.9958343505859</v>
+        <v>205.2339630126953</v>
       </c>
       <c r="B154" t="n">
-        <v>196.88</v>
+        <v>200.45</v>
       </c>
       <c r="C154" t="n">
-        <v>7.115834350585942</v>
+        <v>4.783963012695324</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>211.0321044921875</v>
+        <v>210.7992401123047</v>
       </c>
       <c r="B155" t="n">
-        <v>202.29</v>
+        <v>204.17</v>
       </c>
       <c r="C155" t="n">
-        <v>8.742104492187508</v>
+        <v>6.6292401123047</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>213.9262847900391</v>
+        <v>218.9476928710938</v>
       </c>
       <c r="B156" t="n">
-        <v>212.02</v>
+        <v>208.02</v>
       </c>
       <c r="C156" t="n">
-        <v>1.906284790039052</v>
+        <v>10.92769287109374</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>214.691162109375</v>
+        <v>226.7009124755859</v>
       </c>
       <c r="B157" t="n">
-        <v>212.02</v>
+        <v>214.08</v>
       </c>
       <c r="C157" t="n">
-        <v>2.67116210937499</v>
+        <v>12.62091247558592</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>203.2340545654297</v>
+        <v>231.93017578125</v>
       </c>
       <c r="B158" t="n">
-        <v>216.18</v>
+        <v>225</v>
       </c>
       <c r="C158" t="n">
-        <v>12.94594543457032</v>
+        <v>6.93017578125</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>204.9722595214844</v>
+        <v>234.6352081298828</v>
       </c>
       <c r="B159" t="n">
-        <v>216.18</v>
+        <v>229.69</v>
       </c>
       <c r="C159" t="n">
-        <v>11.20774047851563</v>
+        <v>4.945208129882815</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>171.8391876220703</v>
+        <v>233.672607421875</v>
       </c>
       <c r="B160" t="n">
-        <v>172.27</v>
+        <v>237.1</v>
       </c>
       <c r="C160" t="n">
-        <v>0.4308123779296977</v>
+        <v>3.427392578124994</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>170.4337615966797</v>
+        <v>233.7640991210938</v>
       </c>
       <c r="B161" t="n">
-        <v>172.27</v>
+        <v>237.1</v>
       </c>
       <c r="C161" t="n">
-        <v>1.836238403320323</v>
+        <v>3.335900878906244</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>162.1210479736328</v>
+        <v>229.8695068359375</v>
       </c>
       <c r="B162" t="n">
-        <v>172.27</v>
+        <v>225</v>
       </c>
       <c r="C162" t="n">
-        <v>10.1489520263672</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>187.2405090332031</v>
-      </c>
-      <c r="B163" t="n">
-        <v>172.27</v>
-      </c>
-      <c r="C163" t="n">
-        <v>14.97050903320311</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>197.6940460205078</v>
-      </c>
-      <c r="B164" t="n">
-        <v>172.27</v>
-      </c>
-      <c r="C164" t="n">
-        <v>25.4240460205078</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>202.1144409179688</v>
-      </c>
-      <c r="B165" t="n">
-        <v>188.46</v>
-      </c>
-      <c r="C165" t="n">
-        <v>13.65444091796874</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>205.31005859375</v>
-      </c>
-      <c r="B166" t="n">
-        <v>200.45</v>
-      </c>
-      <c r="C166" t="n">
-        <v>4.860058593750011</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>206.8379669189453</v>
-      </c>
-      <c r="B167" t="n">
-        <v>206.07</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.7679669189453193</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>203.7843475341797</v>
-      </c>
-      <c r="B168" t="n">
-        <v>206.07</v>
-      </c>
-      <c r="C168" t="n">
-        <v>2.285652465820306</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>203.1082611083984</v>
-      </c>
-      <c r="B169" t="n">
-        <v>206.07</v>
-      </c>
-      <c r="C169" t="n">
-        <v>2.961738891601556</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>203.3958282470703</v>
-      </c>
-      <c r="B170" t="n">
-        <v>206.07</v>
-      </c>
-      <c r="C170" t="n">
-        <v>2.674171752929681</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>200.4785308837891</v>
-      </c>
-      <c r="B171" t="n">
-        <v>204.17</v>
-      </c>
-      <c r="C171" t="n">
-        <v>3.691469116210925</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>196.3580322265625</v>
-      </c>
-      <c r="B172" t="n">
-        <v>200.45</v>
-      </c>
-      <c r="C172" t="n">
-        <v>4.091967773437489</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>192.1214904785156</v>
-      </c>
-      <c r="B173" t="n">
-        <v>196.88</v>
-      </c>
-      <c r="C173" t="n">
-        <v>4.75850952148437</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>187.1541290283203</v>
-      </c>
-      <c r="B174" t="n">
-        <v>191.74</v>
-      </c>
-      <c r="C174" t="n">
-        <v>4.585870971679697</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>190.3053131103516</v>
-      </c>
-      <c r="B175" t="n">
-        <v>185.29</v>
-      </c>
-      <c r="C175" t="n">
-        <v>5.01531311035157</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>198.0863494873047</v>
-      </c>
-      <c r="B176" t="n">
-        <v>185.29</v>
-      </c>
-      <c r="C176" t="n">
-        <v>12.7963494873047</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>201.21435546875</v>
-      </c>
-      <c r="B177" t="n">
-        <v>185.29</v>
-      </c>
-      <c r="C177" t="n">
-        <v>15.92435546875001</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>205.2339630126953</v>
-      </c>
-      <c r="B178" t="n">
-        <v>200.45</v>
-      </c>
-      <c r="C178" t="n">
-        <v>4.783963012695324</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>210.7992401123047</v>
-      </c>
-      <c r="B179" t="n">
-        <v>204.17</v>
-      </c>
-      <c r="C179" t="n">
-        <v>6.6292401123047</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>218.9476928710938</v>
-      </c>
-      <c r="B180" t="n">
-        <v>208.02</v>
-      </c>
-      <c r="C180" t="n">
-        <v>10.92769287109374</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>226.7009124755859</v>
-      </c>
-      <c r="B181" t="n">
-        <v>214.08</v>
-      </c>
-      <c r="C181" t="n">
-        <v>12.62091247558592</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>231.93017578125</v>
-      </c>
-      <c r="B182" t="n">
-        <v>225</v>
-      </c>
-      <c r="C182" t="n">
-        <v>6.93017578125</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>234.6352081298828</v>
-      </c>
-      <c r="B183" t="n">
-        <v>229.69</v>
-      </c>
-      <c r="C183" t="n">
-        <v>4.945208129882815</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>233.672607421875</v>
-      </c>
-      <c r="B184" t="n">
-        <v>229.69</v>
-      </c>
-      <c r="C184" t="n">
-        <v>3.982607421875002</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>233.7640991210938</v>
-      </c>
-      <c r="B185" t="n">
-        <v>229.69</v>
-      </c>
-      <c r="C185" t="n">
-        <v>4.074099121093752</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>229.8695068359375</v>
-      </c>
-      <c r="B186" t="n">
-        <v>225</v>
-      </c>
-      <c r="C186" t="n">
         <v>4.8695068359375</v>
       </c>
     </row>
